--- a/config_11.10/game_enter_btn_config.xlsx
+++ b/config_11.10/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1412,11 +1412,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36;89;105#97;100;102;108;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#87#100;102;108;11;93;94#36;89#</t>
+    <t>36;89;105#97;100;102;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#87#100;102;11;93;94#36;89#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2036,7 +2036,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2412,7 +2412,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5103,7 +5103,7 @@
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
